--- a/biology/Botanique/Larry_Ronald_Noblick/Larry_Ronald_Noblick.xlsx
+++ b/biology/Botanique/Larry_Ronald_Noblick/Larry_Ronald_Noblick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prof. Dr. Larry Ronald Noblick (1948 ) est un botaniste américain, qui a travaillé en taxonomíe au Brésil; en développant son activité académique dans le « Département de Biologie Végétale », de l'Université d'État de l'Ohio. Et aussi, à partir de 1990 au Fairchild Tropical Garden.
-En mars 1980, le Professeur Larry Ronald Noblick fonde l'Herbario de l'« Université d'État de Feira de Santana », et il a été son premier conservateur[1].
+En mars 1980, le Professeur Larry Ronald Noblick fonde l'Herbario de l'« Université d'État de Feira de Santana », et il a été son premier conservateur.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1991. The Indigenous Palms of the State of Bahia, Brazil. Ed. Univ. of Illinois at Chicago, 523 pp.
 1977. An Annotated List of the Herbarium Specimens of the Maria Mitchell Association: Dept. of Naturel Science, Nantucket, Massachusetts. Ed. Rand Press, 222 pp.
@@ -545,9 +559,11 @@
           <t>quelques descriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Larry Ronald Noblick travaille beaucoup sur la famille des Arecaceae. Il a déjà décrit un peu plus d'une quarantaine de palmiers dont un important travail sur le genre Butia[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Larry Ronald Noblick travaille beaucoup sur la famille des Arecaceae. Il a déjà décrit un peu plus d'une quarantaine de palmiers dont un important travail sur le genre Butia :
 Butia catarinensis Noblick &amp; Lorenzi
 Butia exospadix Noblick
 Butia lepidotispatha Noblick
@@ -556,7 +572,7 @@
 Butia matogrossensis Noblick &amp; Lorenzi
 Butia odorata (Barb.Rodr.) Noblick
 Butia pubispatha Noblick &amp; Lorenzi
-mais aussi sur d'autres genres, entre autres[3] :
+mais aussi sur d'autres genres, entre autres :
 Bactris horridispatha Noblick ex A.J.Hend.
 Bactris soeiroana Noblick ex A.J.Hend.
 Coccothrinax viridescens Noblick &amp; Street
@@ -594,9 +610,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Eponymie
-(Arecaceae) Butia noblickii Deble, Marchiori, F.s.alVois &amp; A.s.oliveira[4]
-(Melastomataceae) Microlicia noblickii (Wurdack) A.b.martins &amp; Almeda[5]</t>
+          <t>Eponymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Arecaceae) Butia noblickii Deble, Marchiori, F.s.alVois &amp; A.s.oliveira
+(Melastomataceae) Microlicia noblickii (Wurdack) A.b.martins &amp; Almeda</t>
         </is>
       </c>
     </row>
